--- a/Data/Forecasts/IDA1/2023-12-03_exo['y_DA'].xlsx
+++ b/Data/Forecasts/IDA1/2023-12-03_exo['y_DA'].xlsx
@@ -454,7 +454,7 @@
         <v>45263</v>
       </c>
       <c r="B2" t="n">
-        <v>118.3997268676758</v>
+        <v>119.6201171875</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45263.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>122.0107345581055</v>
+        <v>126.5068817138672</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45263.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>117.2057189941406</v>
+        <v>123.7748718261719</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45263.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>109.6709976196289</v>
+        <v>119.1963729858398</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45263.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>111.4246139526367</v>
+        <v>120.5098114013672</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45263.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>106.2406921386719</v>
+        <v>119.1285552978516</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45263.125</v>
       </c>
       <c r="B8" t="n">
-        <v>114.7228393554688</v>
+        <v>120.1011199951172</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45263.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>110.3693084716797</v>
+        <v>117.042350769043</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45263.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>108.8441543579102</v>
+        <v>119.5248489379883</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45263.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>109.902946472168</v>
+        <v>118.9073867797852</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45263.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>113.2647018432617</v>
+        <v>120.6032791137695</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45263.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>126.6633377075195</v>
+        <v>128.7219543457031</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45263.25</v>
       </c>
       <c r="B14" t="n">
-        <v>136.6222534179688</v>
+        <v>132.1677551269531</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45263.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>143.7912902832031</v>
+        <v>140.4591522216797</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45263.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>171.4017181396484</v>
+        <v>163.1872863769531</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45263.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>197.8992156982422</v>
+        <v>194.1389007568359</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45263.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>174.2342376708984</v>
+        <v>184.5361938476562</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45263.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>185.0738220214844</v>
+        <v>196.8851928710938</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45263.375</v>
       </c>
       <c r="B20" t="n">
-        <v>185.9372100830078</v>
+        <v>200.9994506835938</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45263.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>189.8070220947266</v>
+        <v>202.9446411132812</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>186.9076538085938</v>
+        <v>203.6833953857422</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45263.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>183.2765655517578</v>
+        <v>197.2630157470703</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>187.4186553955078</v>
+        <v>199.1311798095703</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45263.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>192.4305572509766</v>
+        <v>198.321044921875</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45263.5</v>
       </c>
       <c r="B26" t="n">
-        <v>189.8033294677734</v>
+        <v>194.4628601074219</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45263.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>194.2749176025391</v>
+        <v>196.814697265625</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>197.0226440429688</v>
+        <v>193.0293884277344</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45263.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>188.2769775390625</v>
+        <v>186.9048309326172</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>194.2146453857422</v>
+        <v>189.3831024169922</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45263.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>199.7796020507812</v>
+        <v>193.3955230712891</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45263.625</v>
       </c>
       <c r="B32" t="n">
-        <v>205.98779296875</v>
+        <v>199.1823577880859</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45263.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>229.9806671142578</v>
+        <v>224.8252258300781</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45263.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>223.4490203857422</v>
+        <v>216.3576507568359</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45263.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>264.4238891601562</v>
+        <v>253.4040374755859</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45263.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>277.3769226074219</v>
+        <v>251.6214904785156</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45263.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>281.8794555664062</v>
+        <v>255.8715667724609</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45263.75</v>
       </c>
       <c r="B38" t="n">
-        <v>250.4567565917969</v>
+        <v>228.4771270751953</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45263.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>234.6765899658203</v>
+        <v>214.3982543945312</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45263.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>217.3245391845703</v>
+        <v>204.7801818847656</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45263.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>203.8212432861328</v>
+        <v>187.9519958496094</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45263.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>180.3766326904297</v>
+        <v>177.8160858154297</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45263.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>165.6428985595703</v>
+        <v>157.0883026123047</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45263.875</v>
       </c>
       <c r="B44" t="n">
-        <v>170.6871643066406</v>
+        <v>160.8988342285156</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45263.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>155.3990173339844</v>
+        <v>147.4034729003906</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45263.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>150.5366821289062</v>
+        <v>150.0952453613281</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45263.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>142.0397186279297</v>
+        <v>137.8648223876953</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45263.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>147.3853759765625</v>
+        <v>145.6342163085938</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45263.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>140.9544982910156</v>
+        <v>144.98779296875</v>
       </c>
     </row>
   </sheetData>
